--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\test_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84056687-A141-425D-9F89-21A5592AE23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8435D-250E-409F-923A-BDE2A46CD5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="672" yWindow="2544" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="108" yWindow="2520" windowWidth="21960" windowHeight="8964" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>测试方法名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,141 +47,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=201314ANQIER1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=admin11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>测试方法名称</t>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+  </si>
+  <si>
+    <t>所属测试类</t>
+  </si>
+  <si>
+    <t>测试是否执行</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数8</t>
+  </si>
+  <si>
+    <t>参数9</t>
+  </si>
+  <si>
+    <t>参数10</t>
+  </si>
+  <si>
+    <t>参数11</t>
+  </si>
+  <si>
+    <t>参数12</t>
+  </si>
+  <si>
+    <t>参数13</t>
+  </si>
+  <si>
+    <t>参数14</t>
+  </si>
+  <si>
+    <t>test_login_success</t>
+  </si>
+  <si>
+    <t>验证是否能成功进行登录</t>
+  </si>
+  <si>
     <t>LoginTest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_login_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>期望结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试人员1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证是否能成功登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password=201314ANQIER1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>username=admin11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数5</t>
-  </si>
-  <si>
-    <t>参数6</t>
-  </si>
-  <si>
-    <t>参数7</t>
-  </si>
-  <si>
-    <t>测试方法名称</t>
-  </si>
-  <si>
-    <t>测试用例名称</t>
-  </si>
-  <si>
-    <t>所属测试类</t>
-  </si>
-  <si>
-    <t>测试是否执行</t>
-  </si>
-  <si>
-    <t>期望结果</t>
-  </si>
-  <si>
-    <t>参数1</t>
-  </si>
-  <si>
-    <t>参数2</t>
-  </si>
-  <si>
-    <t>参数3</t>
-  </si>
-  <si>
-    <t>参数4</t>
-  </si>
-  <si>
-    <t>参数8</t>
-  </si>
-  <si>
-    <t>参数9</t>
-  </si>
-  <si>
-    <t>参数10</t>
-  </si>
-  <si>
-    <t>参数11</t>
-  </si>
-  <si>
-    <t>参数12</t>
-  </si>
-  <si>
-    <t>参数13</t>
-  </si>
-  <si>
-    <t>参数14</t>
-  </si>
-  <si>
-    <t>test_login_success</t>
-  </si>
-  <si>
-    <t>验证是否能成功进行登录</t>
-  </si>
-  <si>
-    <t>LoginTest</t>
+  </si>
+  <si>
+    <t>test_login_fail</t>
+  </si>
+  <si>
+    <t>验证错误的用户名和密码能否成功处理</t>
+  </si>
+  <si>
+    <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuitTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否能退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录 - 禅道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_myzone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证点击进入我的地盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>test_login_fail</t>
-  </si>
-  <si>
-    <t>验证错误的用户名和密码能否成功处理</t>
-  </si>
-  <si>
-    <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
-  </si>
-  <si>
-    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -573,107 +593,107 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -685,10 +705,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
-  <dimension ref="A4:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -700,66 +720,74 @@
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
+      <c r="I1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
+      <c r="E2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5" xr:uid="{161EDC4D-A6DA-42B9-926B-1FF286C42195}">
-      <formula1>$D$3:$D$7</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I2" xr:uid="{161EDC4D-A6DA-42B9-926B-1FF286C42195}">
+      <formula1>$D$1:$D$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -771,7 +799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED478D11-8ED1-4C08-A260-B7127064A4C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>

--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_code\PO_001\test_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A8435D-250E-409F-923A-BDE2A46CD5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA9621-E50E-48D7-9219-F72D2369B6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="2520" windowWidth="21960" windowHeight="8964" activeTab="1" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
+    <workbookView xWindow="108" yWindow="2520" windowWidth="21960" windowHeight="8964" xr2:uid="{FBC1BBDE-1E08-434B-810E-0C96BA4FA2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -165,10 +165,6 @@
     <t>登录失败，请检查您的用户名或密码是否填写正确。</t>
   </si>
   <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuitTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +198,10 @@
   </si>
   <si>
     <t>LinkTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F60192-5C8B-4C2A-82F8-E30BF4F338C8}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -707,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8DE83D-607C-4D12-9D41-2CCE80E7032E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -751,36 +751,36 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
